--- a/Code/Results/Cases/Case_5_199/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_199/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.015797379279255</v>
+        <v>1.038640994678112</v>
       </c>
       <c r="D2">
-        <v>1.034831724017685</v>
+        <v>1.046467931157318</v>
       </c>
       <c r="E2">
-        <v>1.020067215470332</v>
+        <v>1.037277884794242</v>
       </c>
       <c r="F2">
-        <v>1.039535260287282</v>
+        <v>1.05554291047988</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054770882932433</v>
+        <v>1.044069507245682</v>
       </c>
       <c r="J2">
-        <v>1.037515645707205</v>
+        <v>1.043737331682886</v>
       </c>
       <c r="K2">
-        <v>1.045826223115898</v>
+        <v>1.04923328360805</v>
       </c>
       <c r="L2">
-        <v>1.031253885725734</v>
+        <v>1.040069226611012</v>
       </c>
       <c r="M2">
-        <v>1.050469970578384</v>
+        <v>1.058283080269713</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.019826135130162</v>
+        <v>1.039494528143958</v>
       </c>
       <c r="D3">
-        <v>1.037880245954267</v>
+        <v>1.04713486524246</v>
       </c>
       <c r="E3">
-        <v>1.023263943737865</v>
+        <v>1.038001261542631</v>
       </c>
       <c r="F3">
-        <v>1.043114698981193</v>
+        <v>1.056347585341505</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.056161282757562</v>
+        <v>1.044307145050531</v>
       </c>
       <c r="J3">
-        <v>1.039790533585052</v>
+        <v>1.044236222902162</v>
       </c>
       <c r="K3">
-        <v>1.048050340848479</v>
+        <v>1.049712242374992</v>
       </c>
       <c r="L3">
-        <v>1.033607565735313</v>
+        <v>1.040602606856677</v>
       </c>
       <c r="M3">
-        <v>1.053224110651604</v>
+        <v>1.058901239591475</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.022384533855397</v>
+        <v>1.040047410332944</v>
       </c>
       <c r="D4">
-        <v>1.039818791472253</v>
+        <v>1.047566897909925</v>
       </c>
       <c r="E4">
-        <v>1.025299578818658</v>
+        <v>1.038470216357446</v>
       </c>
       <c r="F4">
-        <v>1.045392309619234</v>
+        <v>1.0568690870278</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057034834356277</v>
+        <v>1.044459910944364</v>
       </c>
       <c r="J4">
-        <v>1.041232470257453</v>
+        <v>1.044558964392123</v>
       </c>
       <c r="K4">
-        <v>1.04945926556885</v>
+        <v>1.050021958790645</v>
       </c>
       <c r="L4">
-        <v>1.03510195581001</v>
+        <v>1.040947950140412</v>
       </c>
       <c r="M4">
-        <v>1.054972099190378</v>
+        <v>1.059301396817266</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.023448841821819</v>
+        <v>1.04027998141337</v>
       </c>
       <c r="D5">
-        <v>1.040625827218178</v>
+        <v>1.047748638014806</v>
       </c>
       <c r="E5">
-        <v>1.026147723490999</v>
+        <v>1.038667574257091</v>
       </c>
       <c r="F5">
-        <v>1.046340862835919</v>
+        <v>1.057088521517427</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057395946310313</v>
+        <v>1.044523893106046</v>
       </c>
       <c r="J5">
-        <v>1.041831648732711</v>
+        <v>1.044694625813416</v>
       </c>
       <c r="K5">
-        <v>1.05004452021731</v>
+        <v>1.050152113925173</v>
       </c>
       <c r="L5">
-        <v>1.035723533989966</v>
+        <v>1.04109318151333</v>
       </c>
       <c r="M5">
-        <v>1.055698999759422</v>
+        <v>1.059469661278389</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.023626894767481</v>
+        <v>1.040319039249919</v>
       </c>
       <c r="D6">
-        <v>1.040760873444173</v>
+        <v>1.047779159587002</v>
       </c>
       <c r="E6">
-        <v>1.026289689453076</v>
+        <v>1.038700723738194</v>
       </c>
       <c r="F6">
-        <v>1.046499611619877</v>
+        <v>1.05712537692387</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057456222752914</v>
+        <v>1.044534621858596</v>
       </c>
       <c r="J6">
-        <v>1.041931847542006</v>
+        <v>1.044717402806023</v>
       </c>
       <c r="K6">
-        <v>1.050142378276743</v>
+        <v>1.050173964595775</v>
       </c>
       <c r="L6">
-        <v>1.035827514134713</v>
+        <v>1.041117569336995</v>
       </c>
       <c r="M6">
-        <v>1.055820589247598</v>
+        <v>1.059497915825775</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.022398798898208</v>
+        <v>1.040050517413311</v>
       </c>
       <c r="D7">
-        <v>1.039829605988228</v>
+        <v>1.047569325886048</v>
       </c>
       <c r="E7">
-        <v>1.025310941475116</v>
+        <v>1.038472852643214</v>
       </c>
       <c r="F7">
-        <v>1.045405019069209</v>
+        <v>1.056872018357657</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057039683471146</v>
+        <v>1.044460766823638</v>
       </c>
       <c r="J7">
-        <v>1.041240503818783</v>
+        <v>1.044560777183319</v>
       </c>
       <c r="K7">
-        <v>1.049467113267788</v>
+        <v>1.050023698126635</v>
       </c>
       <c r="L7">
-        <v>1.035110287313221</v>
+        <v>1.040949890538076</v>
       </c>
       <c r="M7">
-        <v>1.054981843044681</v>
+        <v>1.059303645026461</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.017169176663746</v>
+        <v>1.038929327403362</v>
       </c>
       <c r="D8">
-        <v>1.035869174452344</v>
+        <v>1.046693223857837</v>
       </c>
       <c r="E8">
-        <v>1.021154511112076</v>
+        <v>1.037522169722769</v>
       </c>
       <c r="F8">
-        <v>1.040753090763481</v>
+        <v>1.055814682513331</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.055246263421495</v>
+        <v>1.044150024959647</v>
       </c>
       <c r="J8">
-        <v>1.038290795442174</v>
+        <v>1.043905948967054</v>
       </c>
       <c r="K8">
-        <v>1.04658424356303</v>
+        <v>1.049395190993966</v>
       </c>
       <c r="L8">
-        <v>1.032055357117044</v>
+        <v>1.040249440538164</v>
       </c>
       <c r="M8">
-        <v>1.051407943528458</v>
+        <v>1.058491954623183</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.007565546484142</v>
+        <v>1.036958228503736</v>
       </c>
       <c r="D9">
-        <v>1.028619076632043</v>
+        <v>1.045153186975931</v>
       </c>
       <c r="E9">
-        <v>1.01356780396939</v>
+        <v>1.035853776398904</v>
       </c>
       <c r="F9">
-        <v>1.032248088887222</v>
+        <v>1.053957910967526</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051879929012486</v>
+        <v>1.043594822964747</v>
       </c>
       <c r="J9">
-        <v>1.032853945604892</v>
+        <v>1.042751543562724</v>
       </c>
       <c r="K9">
-        <v>1.041264287620443</v>
+        <v>1.048286192167221</v>
       </c>
       <c r="L9">
-        <v>1.02644452262066</v>
+        <v>1.039016831250581</v>
       </c>
       <c r="M9">
-        <v>1.044838766425154</v>
+        <v>1.05706299944425</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.000876784127532</v>
+        <v>1.035647337271498</v>
       </c>
       <c r="D10">
-        <v>1.023587803583774</v>
+        <v>1.044129132773701</v>
       </c>
       <c r="E10">
-        <v>1.008317512401042</v>
+        <v>1.034746213536051</v>
       </c>
       <c r="F10">
-        <v>1.026352604314118</v>
+        <v>1.052724472659745</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04948831964962</v>
+        <v>1.043219603827966</v>
       </c>
       <c r="J10">
-        <v>1.029055658314304</v>
+        <v>1.041981669605893</v>
       </c>
       <c r="K10">
-        <v>1.03754384452581</v>
+        <v>1.047545936146494</v>
       </c>
       <c r="L10">
-        <v>1.022538198130304</v>
+        <v>1.038196297730837</v>
       </c>
       <c r="M10">
-        <v>1.040261815572899</v>
+        <v>1.056111361924703</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9979065258350991</v>
+        <v>1.035080479736297</v>
       </c>
       <c r="D11">
-        <v>1.021358592124661</v>
+        <v>1.043686353520094</v>
       </c>
       <c r="E11">
-        <v>1.005994622983828</v>
+        <v>1.034267763660728</v>
       </c>
       <c r="F11">
-        <v>1.023741885512875</v>
+        <v>1.052191450069494</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048415659537542</v>
+        <v>1.043055934115908</v>
       </c>
       <c r="J11">
-        <v>1.027366655862781</v>
+        <v>1.041648257454574</v>
       </c>
       <c r="K11">
-        <v>1.035888652489482</v>
+        <v>1.04722519443128</v>
       </c>
       <c r="L11">
-        <v>1.020804368081316</v>
+        <v>1.037841300805957</v>
       </c>
       <c r="M11">
-        <v>1.038229536382217</v>
+        <v>1.055699549115976</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9967915753063962</v>
+        <v>1.034870040429722</v>
       </c>
       <c r="D12">
-        <v>1.020522621913515</v>
+        <v>1.043521983972394</v>
       </c>
       <c r="E12">
-        <v>1.005124020054255</v>
+        <v>1.034090217987621</v>
       </c>
       <c r="F12">
-        <v>1.022763042432945</v>
+        <v>1.05199362358909</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048011463241178</v>
+        <v>1.042994960819237</v>
       </c>
       <c r="J12">
-        <v>1.02673234487376</v>
+        <v>1.041524406850412</v>
       </c>
       <c r="K12">
-        <v>1.035266927042769</v>
+        <v>1.047106027042031</v>
       </c>
       <c r="L12">
-        <v>1.020153705965799</v>
+        <v>1.037709485516042</v>
       </c>
       <c r="M12">
-        <v>1.037466757089909</v>
+        <v>1.055546623027902</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.99703127301466</v>
+        <v>1.034915175063434</v>
       </c>
       <c r="D13">
-        <v>1.02070230532543</v>
+        <v>1.043557237317762</v>
       </c>
       <c r="E13">
-        <v>1.005311125082178</v>
+        <v>1.034128294328537</v>
       </c>
       <c r="F13">
-        <v>1.022973426365099</v>
+        <v>1.052036050685858</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04809842869886</v>
+        <v>1.043008047888995</v>
       </c>
       <c r="J13">
-        <v>1.02686872550767</v>
+        <v>1.041550973498481</v>
       </c>
       <c r="K13">
-        <v>1.035400606629501</v>
+        <v>1.047131590171572</v>
       </c>
       <c r="L13">
-        <v>1.02029358029466</v>
+        <v>1.037737758222551</v>
       </c>
       <c r="M13">
-        <v>1.037630738753676</v>
+        <v>1.055579424378841</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9978146049231209</v>
+        <v>1.035063082365265</v>
       </c>
       <c r="D14">
-        <v>1.021289654577335</v>
+        <v>1.043672764664745</v>
       </c>
       <c r="E14">
-        <v>1.005922819414285</v>
+        <v>1.034253084162497</v>
       </c>
       <c r="F14">
-        <v>1.02366116220077</v>
+        <v>1.05217509435817</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048382367251535</v>
+        <v>1.043050897692633</v>
       </c>
       <c r="J14">
-        <v>1.027314366787031</v>
+        <v>1.041638020049943</v>
       </c>
       <c r="K14">
-        <v>1.035837403122556</v>
+        <v>1.047215344614682</v>
       </c>
       <c r="L14">
-        <v>1.020750721260757</v>
+        <v>1.037830403958989</v>
       </c>
       <c r="M14">
-        <v>1.038166647911583</v>
+        <v>1.055686907382352</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9982956789159226</v>
+        <v>1.035154228462925</v>
       </c>
       <c r="D15">
-        <v>1.021650477147124</v>
+        <v>1.043743957965931</v>
       </c>
       <c r="E15">
-        <v>1.006298663122821</v>
+        <v>1.034329994132416</v>
       </c>
       <c r="F15">
-        <v>1.024083679921113</v>
+        <v>1.052260785257348</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.048556541629079</v>
+        <v>1.043077275165539</v>
       </c>
       <c r="J15">
-        <v>1.027588012719909</v>
+        <v>1.04169165148184</v>
       </c>
       <c r="K15">
-        <v>1.036105603400656</v>
+        <v>1.047266944603561</v>
       </c>
       <c r="L15">
-        <v>1.02103149246251</v>
+        <v>1.037887492241122</v>
       </c>
       <c r="M15">
-        <v>1.038495782355617</v>
+        <v>1.055753136493127</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.001072305554206</v>
+        <v>1.035684974034667</v>
       </c>
       <c r="D16">
-        <v>1.023734654054099</v>
+        <v>1.044158532273405</v>
       </c>
       <c r="E16">
-        <v>1.008470603484826</v>
+        <v>1.034777990687134</v>
       </c>
       <c r="F16">
-        <v>1.026524614726572</v>
+        <v>1.052759870203379</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049558711250948</v>
+        <v>1.043230440890042</v>
       </c>
       <c r="J16">
-        <v>1.029166794415469</v>
+        <v>1.042003796092851</v>
       </c>
       <c r="K16">
-        <v>1.037652739866811</v>
+        <v>1.047567218489994</v>
       </c>
       <c r="L16">
-        <v>1.022652350976211</v>
+        <v>1.038219864135357</v>
       </c>
       <c r="M16">
-        <v>1.040395601544681</v>
+        <v>1.05613869804028</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.002793825875238</v>
+        <v>1.036018103180594</v>
       </c>
       <c r="D17">
-        <v>1.025028216247883</v>
+        <v>1.044418757184731</v>
       </c>
       <c r="E17">
-        <v>1.009819520227812</v>
+        <v>1.03505931148521</v>
       </c>
       <c r="F17">
-        <v>1.02803996131336</v>
+        <v>1.053073219325814</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050177287020527</v>
+        <v>1.043326197709186</v>
       </c>
       <c r="J17">
-        <v>1.030145063225544</v>
+        <v>1.042199583231983</v>
       </c>
       <c r="K17">
-        <v>1.038611193876197</v>
+        <v>1.0477555181457</v>
       </c>
       <c r="L17">
-        <v>1.023657540731229</v>
+        <v>1.038428433401537</v>
       </c>
       <c r="M17">
-        <v>1.041573583788783</v>
+        <v>1.056380619338975</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.003790860402793</v>
+        <v>1.036212485675019</v>
       </c>
       <c r="D18">
-        <v>1.025777867012464</v>
+        <v>1.044570603891076</v>
       </c>
       <c r="E18">
-        <v>1.01060157088788</v>
+        <v>1.035223510261544</v>
       </c>
       <c r="F18">
-        <v>1.02891827577227</v>
+        <v>1.053256093130611</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050534527928988</v>
+        <v>1.043381935460404</v>
       </c>
       <c r="J18">
-        <v>1.030711414630217</v>
+        <v>1.042313777489123</v>
       </c>
       <c r="K18">
-        <v>1.039165996810379</v>
+        <v>1.047865330187814</v>
       </c>
       <c r="L18">
-        <v>1.024239782663997</v>
+        <v>1.038550117131248</v>
       </c>
       <c r="M18">
-        <v>1.042255838056806</v>
+        <v>1.056521752197331</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.004129635418119</v>
+        <v>1.036278777568811</v>
       </c>
       <c r="D19">
-        <v>1.026032663674777</v>
+        <v>1.04462239014202</v>
       </c>
       <c r="E19">
-        <v>1.01086743447613</v>
+        <v>1.03527951625328</v>
       </c>
       <c r="F19">
-        <v>1.029216826790185</v>
+        <v>1.053318465709677</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050655738998944</v>
+        <v>1.043400920963964</v>
       </c>
       <c r="J19">
-        <v>1.030903812177147</v>
+        <v>1.04235271388129</v>
       </c>
       <c r="K19">
-        <v>1.039354457851541</v>
+        <v>1.047902769830743</v>
       </c>
       <c r="L19">
-        <v>1.024437630172943</v>
+        <v>1.038591612982489</v>
       </c>
       <c r="M19">
-        <v>1.0424876572281</v>
+        <v>1.056569878921084</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.002609861201621</v>
+        <v>1.0359823539207</v>
       </c>
       <c r="D20">
-        <v>1.024889934538826</v>
+        <v>1.044390831097134</v>
       </c>
       <c r="E20">
-        <v>1.009675287935487</v>
+        <v>1.035029117126621</v>
       </c>
       <c r="F20">
-        <v>1.027877957055229</v>
+        <v>1.053039589307913</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.050111289674873</v>
+        <v>1.043315935857998</v>
       </c>
       <c r="J20">
-        <v>1.030040546467509</v>
+        <v>1.042178577639949</v>
       </c>
       <c r="K20">
-        <v>1.038508802031293</v>
+        <v>1.047735317429927</v>
       </c>
       <c r="L20">
-        <v>1.023550116120858</v>
+        <v>1.038406052903733</v>
       </c>
       <c r="M20">
-        <v>1.041447700641565</v>
+        <v>1.056354660952591</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9975842597776569</v>
+        <v>1.03501952411378</v>
       </c>
       <c r="D21">
-        <v>1.02111691687631</v>
+        <v>1.043638742010379</v>
       </c>
       <c r="E21">
-        <v>1.005742908270069</v>
+        <v>1.034216331906436</v>
       </c>
       <c r="F21">
-        <v>1.023458895849245</v>
+        <v>1.052134144979045</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048298915100582</v>
+        <v>1.043038284430387</v>
       </c>
       <c r="J21">
-        <v>1.027183330471407</v>
+        <v>1.041612387178933</v>
       </c>
       <c r="K21">
-        <v>1.035708970539911</v>
+        <v>1.047190681826268</v>
       </c>
       <c r="L21">
-        <v>1.020616290242811</v>
+        <v>1.037803120807531</v>
       </c>
       <c r="M21">
-        <v>1.03800905680585</v>
+        <v>1.055655255212932</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9943566811384088</v>
+        <v>1.034414831479086</v>
       </c>
       <c r="D22">
-        <v>1.018698542195236</v>
+        <v>1.04316644383893</v>
       </c>
       <c r="E22">
-        <v>1.003225276342803</v>
+        <v>1.033706297117698</v>
       </c>
       <c r="F22">
-        <v>1.020627556696386</v>
+        <v>1.051565793521597</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047125959179813</v>
+        <v>1.042862678268857</v>
       </c>
       <c r="J22">
-        <v>1.025346579047351</v>
+        <v>1.041256363868722</v>
       </c>
       <c r="K22">
-        <v>1.033908460580774</v>
+        <v>1.046848076994051</v>
       </c>
       <c r="L22">
-        <v>1.018733109509985</v>
+        <v>1.037424302456547</v>
       </c>
       <c r="M22">
-        <v>1.035801161726581</v>
+        <v>1.055215740530317</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9960742992368232</v>
+        <v>1.0347353258142</v>
       </c>
       <c r="D23">
-        <v>1.019985057549825</v>
+        <v>1.043416763403466</v>
       </c>
       <c r="E23">
-        <v>1.004564324437241</v>
+        <v>1.03397658123651</v>
       </c>
       <c r="F23">
-        <v>1.022133657783119</v>
+        <v>1.051866997887931</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047751002608231</v>
+        <v>1.042955868318053</v>
       </c>
       <c r="J23">
-        <v>1.026324194871821</v>
+        <v>1.041445101633601</v>
       </c>
       <c r="K23">
-        <v>1.034866844810109</v>
+        <v>1.047029714051479</v>
       </c>
       <c r="L23">
-        <v>1.019735171327648</v>
+        <v>1.037625095275227</v>
       </c>
       <c r="M23">
-        <v>1.036976071057954</v>
+        <v>1.055448713298895</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.002693008817771</v>
+        <v>1.035998507244283</v>
       </c>
       <c r="D24">
-        <v>1.024952433092669</v>
+        <v>1.044403449502964</v>
       </c>
       <c r="E24">
-        <v>1.009740474953309</v>
+        <v>1.035042760320655</v>
       </c>
       <c r="F24">
-        <v>1.027951176964331</v>
+        <v>1.053054784948757</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.05014112203411</v>
+        <v>1.043320573104055</v>
       </c>
       <c r="J24">
-        <v>1.030087786224422</v>
+        <v>1.04218806917863</v>
       </c>
       <c r="K24">
-        <v>1.038555081603933</v>
+        <v>1.047744445325692</v>
       </c>
       <c r="L24">
-        <v>1.023598669230639</v>
+        <v>1.038416165598501</v>
       </c>
       <c r="M24">
-        <v>1.041504596759882</v>
+        <v>1.056366390355275</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.010096847480738</v>
+        <v>1.037467252191233</v>
       </c>
       <c r="D25">
-        <v>1.030527092823291</v>
+        <v>1.045550866266182</v>
       </c>
       <c r="E25">
-        <v>1.015561853694536</v>
+        <v>1.036284275545517</v>
       </c>
       <c r="F25">
-        <v>1.034485153918646</v>
+        <v>1.054437162046645</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052775507936274</v>
+        <v>1.043739255752404</v>
       </c>
       <c r="J25">
-        <v>1.034289125634703</v>
+        <v>1.043050038212056</v>
       </c>
       <c r="K25">
-        <v>1.042669302127291</v>
+        <v>1.048573063397141</v>
       </c>
       <c r="L25">
-        <v>1.027923301295222</v>
+        <v>1.0393352836661</v>
       </c>
       <c r="M25">
-        <v>1.046570720421176</v>
+        <v>1.057432249334855</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_199/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_199/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.038640994678112</v>
+        <v>1.015797379279255</v>
       </c>
       <c r="D2">
-        <v>1.046467931157318</v>
+        <v>1.034831724017685</v>
       </c>
       <c r="E2">
-        <v>1.037277884794242</v>
+        <v>1.020067215470331</v>
       </c>
       <c r="F2">
-        <v>1.05554291047988</v>
+        <v>1.039535260287281</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044069507245682</v>
+        <v>1.054770882932433</v>
       </c>
       <c r="J2">
-        <v>1.043737331682886</v>
+        <v>1.037515645707205</v>
       </c>
       <c r="K2">
-        <v>1.04923328360805</v>
+        <v>1.045826223115898</v>
       </c>
       <c r="L2">
-        <v>1.040069226611012</v>
+        <v>1.031253885725733</v>
       </c>
       <c r="M2">
-        <v>1.058283080269713</v>
+        <v>1.050469970578384</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.039494528143958</v>
+        <v>1.019826135130162</v>
       </c>
       <c r="D3">
-        <v>1.04713486524246</v>
+        <v>1.037880245954266</v>
       </c>
       <c r="E3">
-        <v>1.038001261542631</v>
+        <v>1.023263943737864</v>
       </c>
       <c r="F3">
-        <v>1.056347585341505</v>
+        <v>1.043114698981192</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044307145050531</v>
+        <v>1.056161282757561</v>
       </c>
       <c r="J3">
-        <v>1.044236222902162</v>
+        <v>1.039790533585051</v>
       </c>
       <c r="K3">
-        <v>1.049712242374992</v>
+        <v>1.048050340848478</v>
       </c>
       <c r="L3">
-        <v>1.040602606856677</v>
+        <v>1.033607565735312</v>
       </c>
       <c r="M3">
-        <v>1.058901239591475</v>
+        <v>1.053224110651603</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.040047410332944</v>
+        <v>1.022384533855398</v>
       </c>
       <c r="D4">
-        <v>1.047566897909925</v>
+        <v>1.039818791472254</v>
       </c>
       <c r="E4">
-        <v>1.038470216357446</v>
+        <v>1.025299578818659</v>
       </c>
       <c r="F4">
-        <v>1.0568690870278</v>
+        <v>1.045392309619235</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044459910944364</v>
+        <v>1.057034834356277</v>
       </c>
       <c r="J4">
-        <v>1.044558964392123</v>
+        <v>1.041232470257454</v>
       </c>
       <c r="K4">
-        <v>1.050021958790645</v>
+        <v>1.049459265568851</v>
       </c>
       <c r="L4">
-        <v>1.040947950140412</v>
+        <v>1.035101955810011</v>
       </c>
       <c r="M4">
-        <v>1.059301396817266</v>
+        <v>1.054972099190379</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.04027998141337</v>
+        <v>1.023448841821818</v>
       </c>
       <c r="D5">
-        <v>1.047748638014806</v>
+        <v>1.040625827218177</v>
       </c>
       <c r="E5">
-        <v>1.038667574257091</v>
+        <v>1.026147723490999</v>
       </c>
       <c r="F5">
-        <v>1.057088521517427</v>
+        <v>1.046340862835919</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044523893106046</v>
+        <v>1.057395946310313</v>
       </c>
       <c r="J5">
-        <v>1.044694625813416</v>
+        <v>1.041831648732711</v>
       </c>
       <c r="K5">
-        <v>1.050152113925173</v>
+        <v>1.05004452021731</v>
       </c>
       <c r="L5">
-        <v>1.04109318151333</v>
+        <v>1.035723533989966</v>
       </c>
       <c r="M5">
-        <v>1.059469661278389</v>
+        <v>1.055698999759422</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.040319039249919</v>
+        <v>1.023626894767481</v>
       </c>
       <c r="D6">
-        <v>1.047779159587002</v>
+        <v>1.040760873444173</v>
       </c>
       <c r="E6">
-        <v>1.038700723738194</v>
+        <v>1.026289689453075</v>
       </c>
       <c r="F6">
-        <v>1.05712537692387</v>
+        <v>1.046499611619877</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044534621858596</v>
+        <v>1.057456222752913</v>
       </c>
       <c r="J6">
-        <v>1.044717402806023</v>
+        <v>1.041931847542006</v>
       </c>
       <c r="K6">
-        <v>1.050173964595775</v>
+        <v>1.050142378276743</v>
       </c>
       <c r="L6">
-        <v>1.041117569336995</v>
+        <v>1.035827514134712</v>
       </c>
       <c r="M6">
-        <v>1.059497915825775</v>
+        <v>1.055820589247597</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.040050517413311</v>
+        <v>1.022398798898208</v>
       </c>
       <c r="D7">
-        <v>1.047569325886048</v>
+        <v>1.039829605988227</v>
       </c>
       <c r="E7">
-        <v>1.038472852643214</v>
+        <v>1.025310941475115</v>
       </c>
       <c r="F7">
-        <v>1.056872018357657</v>
+        <v>1.045405019069209</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044460766823638</v>
+        <v>1.057039683471145</v>
       </c>
       <c r="J7">
-        <v>1.044560777183319</v>
+        <v>1.041240503818782</v>
       </c>
       <c r="K7">
-        <v>1.050023698126635</v>
+        <v>1.049467113267788</v>
       </c>
       <c r="L7">
-        <v>1.040949890538076</v>
+        <v>1.035110287313221</v>
       </c>
       <c r="M7">
-        <v>1.059303645026461</v>
+        <v>1.054981843044681</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.038929327403362</v>
+        <v>1.017169176663746</v>
       </c>
       <c r="D8">
-        <v>1.046693223857837</v>
+        <v>1.035869174452344</v>
       </c>
       <c r="E8">
-        <v>1.037522169722769</v>
+        <v>1.021154511112076</v>
       </c>
       <c r="F8">
-        <v>1.055814682513331</v>
+        <v>1.040753090763481</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044150024959647</v>
+        <v>1.055246263421495</v>
       </c>
       <c r="J8">
-        <v>1.043905948967054</v>
+        <v>1.038290795442174</v>
       </c>
       <c r="K8">
-        <v>1.049395190993966</v>
+        <v>1.04658424356303</v>
       </c>
       <c r="L8">
-        <v>1.040249440538164</v>
+        <v>1.032055357117044</v>
       </c>
       <c r="M8">
-        <v>1.058491954623183</v>
+        <v>1.051407943528458</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.036958228503736</v>
+        <v>1.007565546484141</v>
       </c>
       <c r="D9">
-        <v>1.045153186975931</v>
+        <v>1.028619076632042</v>
       </c>
       <c r="E9">
-        <v>1.035853776398904</v>
+        <v>1.013567803969389</v>
       </c>
       <c r="F9">
-        <v>1.053957910967526</v>
+        <v>1.032248088887221</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043594822964747</v>
+        <v>1.051879929012485</v>
       </c>
       <c r="J9">
-        <v>1.042751543562724</v>
+        <v>1.032853945604891</v>
       </c>
       <c r="K9">
-        <v>1.048286192167221</v>
+        <v>1.041264287620442</v>
       </c>
       <c r="L9">
-        <v>1.039016831250581</v>
+        <v>1.026444522620658</v>
       </c>
       <c r="M9">
-        <v>1.05706299944425</v>
+        <v>1.044838766425153</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.035647337271498</v>
+        <v>1.000876784127532</v>
       </c>
       <c r="D10">
-        <v>1.044129132773701</v>
+        <v>1.023587803583774</v>
       </c>
       <c r="E10">
-        <v>1.034746213536051</v>
+        <v>1.008317512401042</v>
       </c>
       <c r="F10">
-        <v>1.052724472659745</v>
+        <v>1.026352604314119</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043219603827966</v>
+        <v>1.04948831964962</v>
       </c>
       <c r="J10">
-        <v>1.041981669605893</v>
+        <v>1.029055658314305</v>
       </c>
       <c r="K10">
-        <v>1.047545936146494</v>
+        <v>1.037543844525811</v>
       </c>
       <c r="L10">
-        <v>1.038196297730837</v>
+        <v>1.022538198130304</v>
       </c>
       <c r="M10">
-        <v>1.056111361924703</v>
+        <v>1.040261815572899</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.035080479736297</v>
+        <v>0.9979065258351002</v>
       </c>
       <c r="D11">
-        <v>1.043686353520094</v>
+        <v>1.021358592124662</v>
       </c>
       <c r="E11">
-        <v>1.034267763660728</v>
+        <v>1.005994622983829</v>
       </c>
       <c r="F11">
-        <v>1.052191450069494</v>
+        <v>1.023741885512877</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043055934115908</v>
+        <v>1.048415659537542</v>
       </c>
       <c r="J11">
-        <v>1.041648257454574</v>
+        <v>1.027366655862782</v>
       </c>
       <c r="K11">
-        <v>1.04722519443128</v>
+        <v>1.035888652489483</v>
       </c>
       <c r="L11">
-        <v>1.037841300805957</v>
+        <v>1.020804368081317</v>
       </c>
       <c r="M11">
-        <v>1.055699549115976</v>
+        <v>1.038229536382219</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.034870040429722</v>
+        <v>0.9967915753063972</v>
       </c>
       <c r="D12">
-        <v>1.043521983972394</v>
+        <v>1.020522621913516</v>
       </c>
       <c r="E12">
-        <v>1.034090217987621</v>
+        <v>1.005124020054256</v>
       </c>
       <c r="F12">
-        <v>1.05199362358909</v>
+        <v>1.022763042432947</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042994960819237</v>
+        <v>1.048011463241179</v>
       </c>
       <c r="J12">
-        <v>1.041524406850412</v>
+        <v>1.026732344873761</v>
       </c>
       <c r="K12">
-        <v>1.047106027042031</v>
+        <v>1.03526692704277</v>
       </c>
       <c r="L12">
-        <v>1.037709485516042</v>
+        <v>1.0201537059658</v>
       </c>
       <c r="M12">
-        <v>1.055546623027902</v>
+        <v>1.03746675708991</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.034915175063434</v>
+        <v>0.9970312730146599</v>
       </c>
       <c r="D13">
-        <v>1.043557237317762</v>
+        <v>1.02070230532543</v>
       </c>
       <c r="E13">
-        <v>1.034128294328537</v>
+        <v>1.005311125082178</v>
       </c>
       <c r="F13">
-        <v>1.052036050685858</v>
+        <v>1.022973426365098</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043008047888995</v>
+        <v>1.04809842869886</v>
       </c>
       <c r="J13">
-        <v>1.041550973498481</v>
+        <v>1.02686872550767</v>
       </c>
       <c r="K13">
-        <v>1.047131590171572</v>
+        <v>1.0354006066295</v>
       </c>
       <c r="L13">
-        <v>1.037737758222551</v>
+        <v>1.02029358029466</v>
       </c>
       <c r="M13">
-        <v>1.055579424378841</v>
+        <v>1.037630738753676</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.035063082365265</v>
+        <v>0.9978146049231206</v>
       </c>
       <c r="D14">
-        <v>1.043672764664745</v>
+        <v>1.021289654577335</v>
       </c>
       <c r="E14">
-        <v>1.034253084162497</v>
+        <v>1.005922819414284</v>
       </c>
       <c r="F14">
-        <v>1.05217509435817</v>
+        <v>1.02366116220077</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043050897692633</v>
+        <v>1.048382367251535</v>
       </c>
       <c r="J14">
-        <v>1.041638020049943</v>
+        <v>1.02731436678703</v>
       </c>
       <c r="K14">
-        <v>1.047215344614682</v>
+        <v>1.035837403122556</v>
       </c>
       <c r="L14">
-        <v>1.037830403958989</v>
+        <v>1.020750721260756</v>
       </c>
       <c r="M14">
-        <v>1.055686907382352</v>
+        <v>1.038166647911584</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.035154228462925</v>
+        <v>0.998295678915922</v>
       </c>
       <c r="D15">
-        <v>1.043743957965931</v>
+        <v>1.021650477147123</v>
       </c>
       <c r="E15">
-        <v>1.034329994132416</v>
+        <v>1.006298663122821</v>
       </c>
       <c r="F15">
-        <v>1.052260785257348</v>
+        <v>1.024083679921112</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043077275165539</v>
+        <v>1.048556541629079</v>
       </c>
       <c r="J15">
-        <v>1.04169165148184</v>
+        <v>1.027588012719908</v>
       </c>
       <c r="K15">
-        <v>1.047266944603561</v>
+        <v>1.036105603400656</v>
       </c>
       <c r="L15">
-        <v>1.037887492241122</v>
+        <v>1.021031492462509</v>
       </c>
       <c r="M15">
-        <v>1.055753136493127</v>
+        <v>1.038495782355617</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.035684974034667</v>
+        <v>1.001072305554204</v>
       </c>
       <c r="D16">
-        <v>1.044158532273405</v>
+        <v>1.023734654054098</v>
       </c>
       <c r="E16">
-        <v>1.034777990687134</v>
+        <v>1.008470603484825</v>
       </c>
       <c r="F16">
-        <v>1.052759870203379</v>
+        <v>1.026524614726571</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043230440890042</v>
+        <v>1.049558711250947</v>
       </c>
       <c r="J16">
-        <v>1.042003796092851</v>
+        <v>1.029166794415468</v>
       </c>
       <c r="K16">
-        <v>1.047567218489994</v>
+        <v>1.03765273986681</v>
       </c>
       <c r="L16">
-        <v>1.038219864135357</v>
+        <v>1.02265235097621</v>
       </c>
       <c r="M16">
-        <v>1.05613869804028</v>
+        <v>1.04039560154468</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.036018103180594</v>
+        <v>1.002793825875238</v>
       </c>
       <c r="D17">
-        <v>1.044418757184731</v>
+        <v>1.025028216247882</v>
       </c>
       <c r="E17">
-        <v>1.03505931148521</v>
+        <v>1.009819520227811</v>
       </c>
       <c r="F17">
-        <v>1.053073219325814</v>
+        <v>1.02803996131336</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043326197709186</v>
+        <v>1.050177287020527</v>
       </c>
       <c r="J17">
-        <v>1.042199583231983</v>
+        <v>1.030145063225544</v>
       </c>
       <c r="K17">
-        <v>1.0477555181457</v>
+        <v>1.038611193876196</v>
       </c>
       <c r="L17">
-        <v>1.038428433401537</v>
+        <v>1.023657540731229</v>
       </c>
       <c r="M17">
-        <v>1.056380619338975</v>
+        <v>1.041573583788783</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.036212485675019</v>
+        <v>1.003790860402792</v>
       </c>
       <c r="D18">
-        <v>1.044570603891076</v>
+        <v>1.025777867012463</v>
       </c>
       <c r="E18">
-        <v>1.035223510261544</v>
+        <v>1.010601570887879</v>
       </c>
       <c r="F18">
-        <v>1.053256093130611</v>
+        <v>1.028918275772269</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043381935460404</v>
+        <v>1.050534527928987</v>
       </c>
       <c r="J18">
-        <v>1.042313777489123</v>
+        <v>1.030711414630216</v>
       </c>
       <c r="K18">
-        <v>1.047865330187814</v>
+        <v>1.039165996810379</v>
       </c>
       <c r="L18">
-        <v>1.038550117131248</v>
+        <v>1.024239782663996</v>
       </c>
       <c r="M18">
-        <v>1.056521752197331</v>
+        <v>1.042255838056805</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.036278777568811</v>
+        <v>1.004129635418118</v>
       </c>
       <c r="D19">
-        <v>1.04462239014202</v>
+        <v>1.026032663674776</v>
       </c>
       <c r="E19">
-        <v>1.03527951625328</v>
+        <v>1.010867434476128</v>
       </c>
       <c r="F19">
-        <v>1.053318465709677</v>
+        <v>1.029216826790183</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043400920963964</v>
+        <v>1.050655738998943</v>
       </c>
       <c r="J19">
-        <v>1.04235271388129</v>
+        <v>1.030903812177145</v>
       </c>
       <c r="K19">
-        <v>1.047902769830743</v>
+        <v>1.039354457851539</v>
       </c>
       <c r="L19">
-        <v>1.038591612982489</v>
+        <v>1.024437630172941</v>
       </c>
       <c r="M19">
-        <v>1.056569878921084</v>
+        <v>1.042487657228099</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.0359823539207</v>
+        <v>1.002609861201621</v>
       </c>
       <c r="D20">
-        <v>1.044390831097134</v>
+        <v>1.024889934538825</v>
       </c>
       <c r="E20">
-        <v>1.035029117126621</v>
+        <v>1.009675287935486</v>
       </c>
       <c r="F20">
-        <v>1.053039589307913</v>
+        <v>1.027877957055228</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043315935857998</v>
+        <v>1.050111289674873</v>
       </c>
       <c r="J20">
-        <v>1.042178577639949</v>
+        <v>1.030040546467509</v>
       </c>
       <c r="K20">
-        <v>1.047735317429927</v>
+        <v>1.038508802031293</v>
       </c>
       <c r="L20">
-        <v>1.038406052903733</v>
+        <v>1.023550116120858</v>
       </c>
       <c r="M20">
-        <v>1.056354660952591</v>
+        <v>1.041447700641564</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.03501952411378</v>
+        <v>0.9975842597776565</v>
       </c>
       <c r="D21">
-        <v>1.043638742010379</v>
+        <v>1.021116916876309</v>
       </c>
       <c r="E21">
-        <v>1.034216331906436</v>
+        <v>1.005742908270069</v>
       </c>
       <c r="F21">
-        <v>1.052134144979045</v>
+        <v>1.023458895849245</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043038284430387</v>
+        <v>1.048298915100581</v>
       </c>
       <c r="J21">
-        <v>1.041612387178933</v>
+        <v>1.027183330471407</v>
       </c>
       <c r="K21">
-        <v>1.047190681826268</v>
+        <v>1.03570897053991</v>
       </c>
       <c r="L21">
-        <v>1.037803120807531</v>
+        <v>1.02061629024281</v>
       </c>
       <c r="M21">
-        <v>1.055655255212932</v>
+        <v>1.03800905680585</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.034414831479086</v>
+        <v>0.994356681138408</v>
       </c>
       <c r="D22">
-        <v>1.04316644383893</v>
+        <v>1.018698542195236</v>
       </c>
       <c r="E22">
-        <v>1.033706297117698</v>
+        <v>1.003225276342802</v>
       </c>
       <c r="F22">
-        <v>1.051565793521597</v>
+        <v>1.020627556696386</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042862678268857</v>
+        <v>1.047125959179813</v>
       </c>
       <c r="J22">
-        <v>1.041256363868722</v>
+        <v>1.025346579047351</v>
       </c>
       <c r="K22">
-        <v>1.046848076994051</v>
+        <v>1.033908460580774</v>
       </c>
       <c r="L22">
-        <v>1.037424302456547</v>
+        <v>1.018733109509984</v>
       </c>
       <c r="M22">
-        <v>1.055215740530317</v>
+        <v>1.03580116172658</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.0347353258142</v>
+        <v>0.996074299236822</v>
       </c>
       <c r="D23">
-        <v>1.043416763403466</v>
+        <v>1.019985057549825</v>
       </c>
       <c r="E23">
-        <v>1.03397658123651</v>
+        <v>1.00456432443724</v>
       </c>
       <c r="F23">
-        <v>1.051866997887931</v>
+        <v>1.022133657783118</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042955868318053</v>
+        <v>1.04775100260823</v>
       </c>
       <c r="J23">
-        <v>1.041445101633601</v>
+        <v>1.026324194871819</v>
       </c>
       <c r="K23">
-        <v>1.047029714051479</v>
+        <v>1.034866844810108</v>
       </c>
       <c r="L23">
-        <v>1.037625095275227</v>
+        <v>1.019735171327647</v>
       </c>
       <c r="M23">
-        <v>1.055448713298895</v>
+        <v>1.036976071057953</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.035998507244283</v>
+        <v>1.002693008817771</v>
       </c>
       <c r="D24">
-        <v>1.044403449502964</v>
+        <v>1.024952433092668</v>
       </c>
       <c r="E24">
-        <v>1.035042760320655</v>
+        <v>1.009740474953309</v>
       </c>
       <c r="F24">
-        <v>1.053054784948757</v>
+        <v>1.027951176964331</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043320573104055</v>
+        <v>1.05014112203411</v>
       </c>
       <c r="J24">
-        <v>1.04218806917863</v>
+        <v>1.030087786224421</v>
       </c>
       <c r="K24">
-        <v>1.047744445325692</v>
+        <v>1.038555081603932</v>
       </c>
       <c r="L24">
-        <v>1.038416165598501</v>
+        <v>1.023598669230639</v>
       </c>
       <c r="M24">
-        <v>1.056366390355275</v>
+        <v>1.041504596759882</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.037467252191233</v>
+        <v>1.010096847480737</v>
       </c>
       <c r="D25">
-        <v>1.045550866266182</v>
+        <v>1.030527092823289</v>
       </c>
       <c r="E25">
-        <v>1.036284275545517</v>
+        <v>1.015561853694534</v>
       </c>
       <c r="F25">
-        <v>1.054437162046645</v>
+        <v>1.034485153918645</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043739255752404</v>
+        <v>1.052775507936274</v>
       </c>
       <c r="J25">
-        <v>1.043050038212056</v>
+        <v>1.034289125634702</v>
       </c>
       <c r="K25">
-        <v>1.048573063397141</v>
+        <v>1.042669302127291</v>
       </c>
       <c r="L25">
-        <v>1.0393352836661</v>
+        <v>1.027923301295221</v>
       </c>
       <c r="M25">
-        <v>1.057432249334855</v>
+        <v>1.046570720421174</v>
       </c>
     </row>
   </sheetData>
